--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">melee</t>
   </si>
   <si>
-    <t xml:space="preserve">Melee</t>
+    <t xml:space="preserve">Melee Weapon</t>
   </si>
   <si>
     <t xml:space="preserve">近接武器</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -439,7 +439,7 @@
     <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
-    <t xml:space="preserve">런치</t>
+    <t xml:space="preserve">점심밥</t>
   </si>
   <si>
     <t xml:space="preserve">Lunch</t>
@@ -1910,9 +1910,9 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
